--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatacarlosdaou/Classwork/data_studio/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9FC7D7-B6D8-3845-88E6-3FA8B019B5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831DD7B-1FEA-E643-A664-63AF36E49553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="20980" windowHeight="12900" xr2:uid="{677FA0A3-B484-1446-AA3F-65DFC5731D5F}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
